--- a/comment.xlsx
+++ b/comment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC0EB9C-615D-42F5-AF95-22E32ADEBB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4B127B-7D63-440D-AC0E-0284543D7C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C99B29C7-3A4C-4F85-8138-E5477A2FBA29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C99B29C7-3A4C-4F85-8138-E5477A2FBA29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>#2001-O/A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
   <si>
     <t>品番</t>
     <rPh sb="0" eb="2">
@@ -362,10 +359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#726</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -527,9 +520,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#749/A</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -590,14 +580,722 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#756/A</t>
+    <t>背の飾りがシンプルで穴が開いていないものは、SC201（No●●●●●参照）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロッキング、ラブチェアなどバリエーションあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#766</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C60</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>KA270：背座クッションが分かれていて背のデザインが丸い</t>
+  </si>
+  <si>
+    <t>KA270：材ナラ</t>
+  </si>
+  <si>
+    <t>IS22</t>
+  </si>
+  <si>
+    <t>IS27A</t>
+  </si>
+  <si>
+    <t>No750A：背張込式　</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>背と座の間に棒が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本有り。無いものは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No.749</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No.20006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）など</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NW264</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タイプの板座ﾊﾞｰｼﾞｮﾝ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SP-214</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>もある</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背は籐張り。背張り込みタイプはNW265,265A（No.●●●●●参照）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TU10-A</t>
+  </si>
+  <si>
+    <t>初期モデルは、タモ材後期モデルはナラ材</t>
+  </si>
+  <si>
+    <t>TU10O：肘無し商品（No20082）</t>
+  </si>
+  <si>
+    <t>TU10W：ﾍﾞﾝﾁ商品（No20059）</t>
+  </si>
+  <si>
+    <t>TU25：形状は同じ、全体的にH・SH共に少し高めでWも小ぶり</t>
+  </si>
+  <si>
+    <t>穂高ｼﾘｰｽNo.2003A型・HK260型て背凭れが籐でない商品展開（HK280A・O・W）あり。（現在は廃盤）</t>
+  </si>
+  <si>
+    <t>TU10-O</t>
+  </si>
+  <si>
+    <t>TU10A：アームチェア（No20054）</t>
+  </si>
+  <si>
+    <t>TU10W：両肘付ベンチ（No20059）</t>
+  </si>
+  <si>
+    <t>肘が穂高仕様2003A（背が籐張)/HK260A（背ﾗﾀﾞｰﾊﾞｯｸ仕様背ｸｯｼｮﾝﾀｲﾌﾟ）</t>
+  </si>
+  <si>
+    <t>2020年頃に穂高ｼﾘｰｽﾞHK280型にて背凭れが籐でない商品展開あり。（現在は廃番）</t>
+  </si>
+  <si>
+    <t>初期ﾊﾞｰｼﾞｮﾝは、ﾆﾚ材・後期はﾅﾗ材</t>
+  </si>
+  <si>
+    <t>TU10-W</t>
+  </si>
+  <si>
+    <t>TU10O：肘無しチェア（No20082）</t>
+  </si>
+  <si>
+    <t>2020年頃に穂高ｼﾘｰｽﾞHK280型にて背凭れが籐でない商品展開あり。（現在は廃盤）</t>
+  </si>
+  <si>
+    <t>TU10A：デザインは同じだが、座面が低くLDタイプの肘付き（No20082）</t>
+  </si>
+  <si>
+    <t>TU10O：デザインは同じだが、座面が低くLDタイプの肘無し（No20082）</t>
+  </si>
+  <si>
+    <t>TU10W：デザインは同じだが、座面が低くLDタイプの肘付き（No20059）</t>
+  </si>
+  <si>
+    <t>NW261：籐張りの後ろに桟が３本付いている</t>
+  </si>
+  <si>
+    <t>No2002：後ろ脚上の左右のギボシが丸く取り外しが出来る</t>
+  </si>
+  <si>
+    <t>#735</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ﾋﾞｮｰ打ちあるため要見積</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブナ材（別品番）での制作時期もあり</t>
+  </si>
+  <si>
+    <t>#736</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笠木が真っすぐ。笠木が山切りカットされているものはC61ウラル　ﾌﾞﾅ材仕様（No.20008）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期ﾊﾞｰｼﾞｮﾝは、ﾌﾞﾅ仕様・後期モデルは、ｺﾞﾑ材（ホワイトパラ）仕様の輸入モデル</t>
+  </si>
+  <si>
+    <t>背の飾りがシンプルで穴が開いていないものは、SC202（No●●●●●参照）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>背の籐張りのものは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>●●●●●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>参照）</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>背の笠木部分幅が狭い。幅が広いものは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No.186</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>デンバー（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No.20001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>参照）</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カサキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>C61</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>板座仕様と張込仕様（ビョー打ち）がある。品番は同じのため注意</t>
+  </si>
+  <si>
+    <t>笠木が山切りカットされている。真っすぐなものは735,736マッキンレー（No.20005）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C6１は、ﾌﾞﾅ・735・736はﾅﾗ材の仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脚の貫がC61はH型・735.736は四方に貫が入っている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C73：座上はC78に近く脚部は、781型の脚部を使用</t>
+  </si>
+  <si>
+    <t>C77：笠木が違う。真ん中背板のデザインが違う。（No20058）</t>
+  </si>
+  <si>
+    <t>C78：背中真ん中の背板のデザインが違う。（No20051)</t>
+  </si>
+  <si>
+    <t>SC286：全体のフォルムは似ているが、背受けが違う。</t>
+  </si>
+  <si>
+    <t>C71</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C77</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【DK268】と同じ（穂高）で現在はホワイトオーク材</t>
+  </si>
+  <si>
+    <t>C78</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C71…背中真ん中の背板のデザインが違う。（NO</t>
+  </si>
+  <si>
+    <t>C77…笠木が違う。真ん中背板のデザインが違う。（NO</t>
+  </si>
+  <si>
+    <t>C78T：上部が全く同じ回転盤付チェアがある</t>
+  </si>
+  <si>
+    <t>SC278：形状は全く同じだが、笠木に手掛け穴が空いている</t>
+  </si>
+  <si>
+    <t>point6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C78T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№781-T ララミー：肘付きで笠木に手掛け穴あり、総高が低い</t>
+  </si>
+  <si>
+    <t>C81</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C91：背凭れにデザイン有仕様（№20070）</t>
+  </si>
+  <si>
+    <t>781：笠木に手掛け穴がある</t>
+  </si>
+  <si>
+    <t>No186：全体的にサイズが大きくフルアーム</t>
+  </si>
+  <si>
+    <r>
+      <t>C91：背籐無し、幅広の板に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の掘り込み・笠木に穴無し（№20070）</t>
+    </r>
+  </si>
+  <si>
+    <t>C81：背籐無し、背受け肘下含め６本あり</t>
+  </si>
+  <si>
+    <t>C84</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背藤張り・笠木に手掛け穴ありデザインで品番：C84あり（№20062）</t>
+  </si>
+  <si>
+    <t>C91</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C92</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背に張込デザインで品番：C93あり（№20124）</t>
+  </si>
+  <si>
+    <t>H15A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>KA270</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：背座クッションが分かれていて背のデザインが丸い</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KA270：材ナラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IS10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No2004A：木部パーツが全体的にロクロ</t>
+  </si>
+  <si>
+    <t>IS11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IS20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同品番で、板座仕様と張込仕様がある。</t>
+  </si>
+  <si>
+    <t>IS20T：回転ｪｱ（No20075）</t>
+  </si>
+  <si>
+    <t>IS20A：ｱｰﾑﾁｪｱ（No20060）</t>
+  </si>
+  <si>
+    <t>IS20AT：回転ｱｰﾑﾁｪｱ（No20076）</t>
+  </si>
+  <si>
+    <t>IS19：背受け真ん中の桟のみ太い</t>
+  </si>
+  <si>
+    <t>2014年頃にチェアのみSD23N、SD23Bで復刻。現在廃盤</t>
+  </si>
+  <si>
+    <t>IS20A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IS20：チｪｱ（No20055）</t>
+  </si>
+  <si>
+    <t>IS20AT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IS20A：アームチｪｱ（No20060）</t>
+  </si>
+  <si>
+    <t>point7</t>
+  </si>
+  <si>
+    <t>IS-21は21と21Hの2種類あり初期ﾊﾞｰｼﾞｮﾝはIS21のちにﾊｲﾀｲﾌﾟIS-21Hに仕様変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IS-10A・IS-11は肘付きﾀｲﾌﾟのLDﾀｲﾌﾟ/IS-20・IS20Aは、曲木のﾀﾞｲﾆﾝｸﾞ仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾆｭｰｺﾛﾆｱﾙｼﾘｰｽﾞは、IS-10A・IS-11・IS-20・IS20A・IS-21の5種類の板座椅子にて構成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IS20T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IS21H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IS21H：座張り有り</t>
+  </si>
+  <si>
+    <t>MC11A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もともとは外注製作品。2020年前後より飛騨産業にて製作</t>
+  </si>
+  <si>
+    <t>NW231A</t>
+  </si>
+  <si>
+    <t>SQ281A</t>
+  </si>
+  <si>
+    <t>物件によりレギュラー材料のﾎﾜｲﾄｵｰｸ材を指定頂き製作実績あり。（例：ﾋﾞｰﾁ、ﾚｯﾄﾞｵｰｸ）</t>
+  </si>
+  <si>
+    <t>MC12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MC11：背中央抜けていて空間になっている</t>
+  </si>
+  <si>
+    <t>MC13：背張り</t>
+  </si>
+  <si>
+    <t>SC278</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C78（ブナ）→SC278（ブナ）→DK268（ﾎﾜｲﾄｵｰｸ）に材変更</t>
+  </si>
+  <si>
+    <t>SC286：背もたれが低く、背受け5本</t>
+  </si>
+  <si>
+    <t>SC278T：上部は同じデザインの回転チェア</t>
+  </si>
+  <si>
+    <t>C73：上部はC78に近く脚部は781の仕様と同じ</t>
+  </si>
+  <si>
+    <t>※SC278のみ笠木に手掛け穴あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC278T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C78T：笠木に手掛け穴があいていない</t>
+  </si>
+  <si>
+    <t>TU20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№754：背もたれと座面の間に隙間があり、後ろ脚が平たくない</t>
+  </si>
+  <si>
+    <t>LU210：背もたれと座面の間に隙間があり、後ろ脚が平たくない</t>
+  </si>
+  <si>
+    <t>#767</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#781</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#186</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●●年まではラッカー塗装。●●年以降はウレタン塗装。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●●年までは旧K色。●●年以降はK色。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●●年まではブナ材。●●年以降はホワイトオーク材。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・背の笠木部分に山切りカット有り。無いものはNo192（No●●●●●参照）</t>
+  </si>
+  <si>
+    <t>・背の笠木部分幅が広い。幅が狭いものはNo781ララミー（No●●●●●参照）</t>
+  </si>
+  <si>
+    <t>#2001-O_A</t>
+  </si>
+  <si>
+    <t>#726_A</t>
+  </si>
+  <si>
+    <t>#749_A</t>
+  </si>
+  <si>
+    <t>#756_A</t>
+  </si>
+  <si>
+    <t>NW264_A</t>
+  </si>
+  <si>
+    <t>TU25_A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,13 +1342,46 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -667,7 +1398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,6 +1406,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,89 +1743,806 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F89E10-74DD-4645-9643-023642A8D72D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
